--- a/biology/Zoologie/Corneille_des_Banggai/Corneille_des_Banggai.xlsx
+++ b/biology/Zoologie/Corneille_des_Banggai/Corneille_des_Banggai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Corneille des Banggai (Corvus unicolor) est une espèce d'oiseaux de la famille des Corvidae. Elle est en danger critique d'extinction. La population totale est estimée à environ 500 individus matures.  
 </t>
@@ -511,13 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corvus unicolor est une petite corneille de 39 cm de long et un poids de 175 g. Cet oiseau est complètement noir, avec un petit reflet verdâtre ou bleuâtre. Sa queue est courte et son iris pâle.
-Voix
-Corvus unicolor émet un sifflement aigu de trois à quatre notes : « kruik, kruik, kruik[3] ».
-Alimentation
-Cette espèce se nourrit d'arthropodes.
 </t>
         </is>
       </c>
@@ -543,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet oiseau est endémique d'Indonésie. Il fréquente les forêts humides et montagneuses[4].
+          <t>Voix</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corvus unicolor émet un sifflement aigu de trois à quatre notes : « kruik, kruik, kruik ».
 </t>
         </is>
       </c>
@@ -574,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son nom vernaculaire, Corneille des Banggai, fait référence aux îles Banggai en Indonésie.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se nourrit d'arthropodes.
 </t>
         </is>
       </c>
@@ -605,10 +627,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est endémique d'Indonésie. Il fréquente les forêts humides et montagneuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corneille_des_Banggai</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corneille_des_Banggai</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom vernaculaire, Corneille des Banggai, fait référence aux îles Banggai en Indonésie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corneille_des_Banggai</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corneille_des_Banggai</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Lionel Walter Rothschild et Ernst Hartert, « Gazzola unicolor, n. sp », Bulletin of the British Ornithologists' Club, vol. 11,‎ 1900, p. 29-30 (lire en ligne, consulté le 12 février 2020).</t>
         </is>
